--- a/out/policy_events_2026-02-25.xlsx
+++ b/out/policy_events_2026-02-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>‘위법 상호관세 대체’ 트럼프의 새 글로벌 관세 발효…일단 10% - KBS 뉴스</t>
+          <t>‘美 상호관세 무효화’ 불똥, K배터리·전력 장비로 튀나 - 조선일보</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>‘위법 상호관세 대체’ 트럼프의 새 글로벌 관세 발효…일단 10%&amp;nbsp;&amp;nbsp;KBS 뉴스트럼프 ‘글로벌 관세’ 발효… “장난치면 더 높일 것”&amp;nbsp;&amp;nbsp;동아일보‘美 상호관세 무효화’ 불똥, K배터리·전력 장비로 튀나&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>‘美 상호관세 무효화’ 불똥, K배터리·전력 장비로 튀나&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:05:00 GMT</t>
+          <t>Tue, 24 Feb 2026 06:29:35 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE5udlc5eW13bWYwWDlpUEl6dDJLZWJ2MHVUV1RLdWgxb2VQUGRVb0h2aU12SlZEaExCcHNJQ1BkQVo3Y0VyTzB0V2FPWGtacXdES0RfSUR5el9HM2M?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNQVhTS2ZmQjg0SURHUEc5ZzlpbUxlUkt4eHNCTzFxYVdOT3RVRTlQclh4V0lLcktBVk9FU0Vhc0pKbnRqUGJvM2JuZEhhXy1RM0J4c0RoVUFSWFZFVU9iLXdhbW1SOTF6WTVOU3pIcUdpX1ZaZ2F4WnFHekNydmpOSTdpSEFSZG5ibUtkYnc5Njh3Z21ubk9fR2MtX3pLZ9IBsgFBVV95cUxQLXM1czZRODNJS2FnY3MzZ3dTS1VuSWN1SHlCZG9TYmQzOWl3Sk91NHJVSkZjYmZWbUtzSWxvSG1NVjMxRWRCTW9yaTNCMmNSUzJ3NzVzcnUzUDNvVDhBWDRLd0lkdmJtQ0ROb1hWWE14RGJoaUkwQklVS2tGd0RwRGhtd0Fkb3Q0bERieFA5S2hoN1g5SE1fZEJURlFZcTlXZ3FUN2ZRQ2RfcGVmZVpRYkVB?oc=5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -513,22 +513,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[오늘의 투자전략] 관세 흔들림에도 AI 불안 진정…코스피 6000선 재도전 - 이투데이</t>
+          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과” - 한겨레</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[오늘의 투자전략] 관세 흔들림에도 AI 불안 진정…코스피 6000선 재도전&amp;nbsp;&amp;nbsp;이투데이</t>
+          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과”&amp;nbsp;&amp;nbsp;한겨레‘위법 상호관세 대체’ 트럼프의 새 글로벌 관세 발효…일단 10%&amp;nbsp;&amp;nbsp;KBS 뉴스강경화 "미국 새 관세, 국익에 가장 부합하는 방법으로 대응"&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 22:46:00 GMT</t>
+          <t>Tue, 24 Feb 2026 06:34:00 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE5BUGNMdnA2RlJISlZfRXNkRVprVUZVSjd2QjI1NDJhNFZvZmxqU1hVVTd1UklpVndqX2syWlZScGtLeUxiTFQ4cDNFd2dUZ2lwNWZaYQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5OOE5scE1pUUtDazYzUzg3aGo1MmZfWFBJaFZ0Smp3ZnZLcjRFMVB2QWNmNnIwVTY1blRNVXQwMm4wenBWNU1MSmltWm9qd05UOUFJczI0cERJa0VsdFdrckVwME9iTHRKaWx2ZkM5UQ?oc=5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AI 실업 공포·관세 리스크에 뉴욕 증시 급락 …다우지수 1.7%↓ - 한겨레</t>
+          <t>이베이 "작년 韓셀러 미국 배송 58%↑"…관세 부담에도 급성장 - 연합뉴스</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AI 실업 공포·관세 리스크에 뉴욕 증시 급락 …다우지수 1.7%↓&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>이베이 "작년 韓셀러 미국 배송 58%↑"…관세 부담에도 급성장&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon, 23 Feb 2026 23:58:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:44:21 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5oRzJkbzVrVWlrbDFVTTFJb3pWSEY4Wk5pQjgwaDZ0WEl5UjhjNHpLcW9VRm9fNTI0b3JQblNhMkJ3TWJuQjhxc1ZSWkl6dzV1QWZDZFc2dUw5eGRHZTdhVDduY1RTT2FqMzQtdzdkdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9TS0hpSDhPMHpGTUcyN0ozNC01eVRfeE1uWWhheDB3b1BGMTJIa2JpSnRNdVE0V2lQRG5fRldfa0V0bVA4dHM2WjBTdnpzSzVfRlJsRHA0RzVFd2PSAWBBVV95cUxQVzE1UnpNU1U5emNVTzdkeTFST2tKOVBHVDlTaUtHT3NYeUljRXpJTnFkRURmaUtOdlRXNnlIODVpWUxjU3ZObEFOYktlMGV5VXRQOXNmMm1jazZwblR4V1k?oc=5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -587,32 +587,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 하락 하루 만에 관세 충격 딛고 반등…AMD, 8.8% 폭등 - v.daum.net</t>
+          <t>삼정KPMG "IEEPA 관세 위법, 환급 등 점검해야" - 아시아경제</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 하락 하루 만에 관세 충격 딛고 반등…AMD, 8.8% 폭등&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>삼정KPMG "IEEPA 관세 위법, 환급 등 점검해야"&amp;nbsp;&amp;nbsp;아시아경제</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:43:42 GMT</t>
+          <t>Tue, 24 Feb 2026 23:29:00 GMT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBKR2lFRDRnbnRrM0x3ZXJZSUd3R1Y3LWdBeGJ0aVBhdVJUVjhtQTJTeldyLS15WUZEVDd3YjEtOTZpalBtS00wY0t6TXFuVUk?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE0wa0steno0Vzd2ZnNQNWhSLV9LRjcyR1IzMG85ZUZkejdSa09MX2gwMVdyVzNUSG83Zng3ZDZyVU5kaW9FN3lPSHpEZ1c3QXlXSU1qU2pBZklxTjN0Wml3Sg?oc=5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -624,22 +624,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>강경화 “‘플랜B’ 관세에 적극 대비…트럼프 방중 계기 북미 대화 가능성 주시 ” - 경향신문</t>
+          <t>[속보] "트럼프 122조 관세, 10%로 개시…15% 인상은 추후에" NBC - 뉴시스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>강경화 “‘플랜B’ 관세에 적극 대비…트럼프 방중 계기 북미 대화 가능성 주시 ”&amp;nbsp;&amp;nbsp;경향신문</t>
+          <t>[속보] "트럼프 122조 관세, 10%로 개시…15% 인상은 추후에" NBC&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 23:26:00 GMT</t>
+          <t>Tue, 24 Feb 2026 05:19:57 GMT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFBrUkhkcEJaYXdnN184UW84ZldydW5DUTFuNUxLVnp6LURmbDI5NVR0Y0JoSE5HaDlYOXRCZlNmcV9zQ0FiUHY3QTgyYTY0NWdkUXJvMmMtT3lZd9IBX0FVX3lxTFBraU15cVVNT1o3SkFNT2gwc29IWTdnT0loSnRWcGQzSHE2TFBRWWFUUnd4X2xpTUlqbjI3dVpvY3dyWm5oSlMyMlg2eXhRU192OUI3XzBuNndwb1RoUEhR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9TM09udW5zS1R6d3hLWXc4dFJQa2Z4WG1KVzc2Q29sNlZaOHVfRkNhc0FSMDJnZ3laS194UWphLVNiZ1hQS2FSRmdnR29wRFNHMHE0QngxTFptTWl6eFl0M9IBeEFVX3lxTE9WYWdtYnc5M2lkZENldDlOSDNtWkJSRVFFME9rSmlaM092QngyVGhMaDg5NXN1Z3ZPa0tObkk2UXBzVXVhcEFyeW9LbUFVbFlrWTJ1bXBmMXlIMHNELXZBZjJzYzQ2Y0JQVmw1Ml9kRTVPbDZaR3NYNg?oc=5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美, 쿠팡관련 무역법 301조 조사 가능성…관세로 직결될진 미지수(종합) - 연합뉴스</t>
+          <t>크루그먼 "트럼프 관세, 목표 달성 실패…'좀비 관세'로 연명" - 마켓인</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美, 쿠팡관련 무역법 301조 조사 가능성…관세로 직결될진 미지수(종합)&amp;nbsp;&amp;nbsp;연합뉴스</t>
+          <t>크루그먼 "트럼프 관세, 목표 달성 실패…'좀비 관세'로 연명"&amp;nbsp;&amp;nbsp;마켓인</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 19:17:38 GMT</t>
+          <t>Wed, 25 Feb 2026 00:35:42 GMT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1lQ2ZxNmlNcjA3MEUxN09YdzV0Z0hTdFpjNnJ5LTZHTTVJYXhoT2RPTmFIcWZ5TGtnRGpENnNDaGt0enEzOVNXT2RZVUF1WDViT3p2VjNZRm1aM1XSAWBBVV95cUxOTnB6WUhaUTJXNkptd1FhdlBaX0VZbzhYNEVWQ1F1eVExRkZPeVoySGwzMU5uUDNFOE43bVlBUVFJZndlX0lSU01tNF9IMUZHcl9PY2lYcHp5UWNWd2hCSmQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE8tWHhIMTQ0ZGYxVFFQTW8wRHlxanFWU09TMFpMVVJKSnlLRWd5NWVRSWVzTDIzNHY3a0RScm9vcUo1LTJhRlZaajhrQ2xhb2VpeHduQk0wd1ktLW95c1QzR2JFdGpXRmxkVk16QzI3OEFZU1k?oc=5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -698,22 +698,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[속보] "트럼프 122조 관세, 10%로 개시…15% 인상은 추후에" NBC - 뉴시스</t>
+          <t>관세 전쟁 재점화?… 금은 오르고 비트코인은 더 떨어져 - 조선일보</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[속보] "트럼프 122조 관세, 10%로 개시…15% 인상은 추후에" NBC&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>관세 전쟁 재점화?… 금은 오르고 비트코인은 더 떨어져&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:19:57 GMT</t>
+          <t>Tue, 24 Feb 2026 15:35:00 GMT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9TM09udW5zS1R6d3hLWXc4dFJQa2Z4WG1KVzc2Q29sNlZaOHVfRkNhc0FSMDJnZ3laS194UWphLVNiZ1hQS2FSRmdnR29wRFNHMHE0QngxTFptTWl6eFl0M9IBeEFVX3lxTE9WYWdtYnc5M2lkZENldDlOSDNtWkJSRVFFME9rSmlaM092QngyVGhMaDg5NXN1Z3ZPa0tObkk2UXBzVXVhcEFyeW9LbUFVbFlrWTJ1bXBmMXlIMHNELXZBZjJzYzQ2Y0JQVmw1Ml9kRTVPbDZaR3NYNg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxPb1NVSTZLUU1ISl9FdkNhV3F6andHb3dpQUdzZDFQRFpaVmptNWpQblFFMVVlNEVtdEQ0dThrbHo3alVKODV1d216SjBnSFYwVWluZVVsMGl3aFZuX09mQVpaT1VKLVpZR2hvSE83dXlzSDlwbGhrT1k3UnJlOEgzUdIBlAFBVV95cUxNMVA1em42cG91OC16M1ZDejBYVUlONkdXSkZ6LWxPZllQYXIwZWVmMWZvczFoRlhyRlNKdEVFek1RZWlKbnQxVzZ4Zmd2NHJ5aUJjY2hzdjR5YmdVLUowM2MtNmgwc0FDcV90Y2xpdUg2cVBtTEwzcnZFZWtGUzUyU21SSnQyRksyTzZaNEhXdnFVX0p1?oc=5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>미국 정부 태양광 관세 적용국 범위 확대 추진, 인도·인도네시아·라오스 포함 - 비즈니스포스트</t>
+          <t>관세 영향·중동 긴장에 비트코인 약세 흐름 - 부산일보사</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>미국 정부 태양광 관세 적용국 범위 확대 추진, 인도·인도네시아·라오스 포함&amp;nbsp;&amp;nbsp;비즈니스포스트</t>
+          <t>관세 영향·중동 긴장에 비트코인 약세 흐름&amp;nbsp;&amp;nbsp;부산일보사</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 01:30:38 GMT</t>
+          <t>Wed, 25 Feb 2026 00:07:08 GMT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE50dk42clEtRmhYWnlWX3IzNUZvSEZVN05PbjNNRHFqYlNBMkdxZ1phTHRKU09McjFjb01yd1k1ejNjQ0JiZkxscThKN3VkNGQxdGdrLVp1RWx1aXNKSHRJMUZwY2l0WVlrSVFyTTlqaEtxOTQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE9JS043THlBZ3VVYkZ5bmI4cW9Fd0RKNUJoajZfNXR0WFd1QmpOZFNUR2tERkVzZ1l6UE92WWRZMV9BYUdRNkFMNlBldGcyS2ZkS2ZzVEkzcE9oY3UxNjVMUVYtUldXbUQtOWVlajVmZGlpUkZY?oc=5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -772,22 +772,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"美,EU 철강·알루미늄 파생 제품 관세 곧 인하 전망" - 한국경제</t>
+          <t>미국, 인도·인도네시아 태양광 발전 기기에 고율 관세 부과 - v.daum.net</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"美,EU 철강·알루미늄 파생 제품 관세 곧 인하 전망"&amp;nbsp;&amp;nbsp;한국경제</t>
+          <t>미국, 인도·인도네시아 태양광 발전 기기에 고율 관세 부과&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 15:47:21 GMT</t>
+          <t>Wed, 25 Feb 2026 00:54:46 GMT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9Xb05vLTFIZlh3d0ZVdGlTWlVoSDFKS2lRZlprZlR5VVN4R2hkRUFDbVU2bzFsUmQxdDI5WFNJb1pWRVM0WVp1bVFVTUhTelBMVzA0SU9aUXNjZ9IBVEFVX3lxTFBBZjJpcXlYZHAwcmN5LTdSSGxDOTFIeHBFOEtLSW45TkVyR2Y1SXNraUNzemxXekpyZk52RXVIeWZ2bGhHVC1PVHhjU053R3U4bndBMA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9lTWNnYnVZNlRQcVZXSkhrNzhtemNrQWZLdHJyVFVoelRtSUdMZW9VV2N1LTZqc1Z0dXVEVzVfMkh1SDJUMmtyVUx6bExuN0k?oc=5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>트럼프 관세, K-뷰티 영향은? 中 ODM 생산 유입 따라 공급망 리스크 확대 - 코스인코리아닷컴</t>
+          <t>美, 인도·인니 태양광 고율관세…美진출 한화 '반사이익' 기대 - 연합뉴스</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>트럼프 관세, K-뷰티 영향은? 中 ODM 생산 유입 따라 공급망 리스크 확대&amp;nbsp;&amp;nbsp;코스인코리아닷컴</t>
+          <t>美, 인도·인니 태양광 고율관세…美진출 한화 '반사이익' 기대&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 23:04:27 GMT</t>
+          <t>Wed, 25 Feb 2026 00:44:24 GMT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5FNEI4eEpDMlppeGhrRHozMGc4OFktLWtEbVQ1X3hnQkI5T3JOSE5LdF85eG9YdmRYQVVSTm1RQVRHazgzSm5PT090YWtfdXpEQlVQSlNZLUFLOC1Sd2dnZHdKRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9MU2hKSnBIVjBmRDJreUNEZTlSWG4wZXNqRU5yY1lwWnZCa2Z0OS1yUGk4REN5RG9FYlZGU3ZJZTVVLTN2QTVUZUo2MlR3ZkVhaEkxM2F6azRrQzTSAWBBVV95cUxPNlZHcEdrNWNPdW4yMHZEQmNPcDJNWnZReG9rN3Jvak9mSFRyRHdOUktTWWxLWXJ2ZFVoeWhVQU9pQ3p3LUhaaXhSZ0pqNGhWRkdXM0t5Q0Q4QlBfTnVZVGw?oc=5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>트럼프가 쥔 ‘관세 카드’ 232조·301조…발동되면 세율 조정 만능키 - 한겨레</t>
+          <t>미국 정부 태양광 관세 적용국 범위 확대 추진, 인도·인도네시아·라오스 포함 - 비즈니스포스트</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>트럼프가 쥔 ‘관세 카드’ 232조·301조…발동되면 세율 조정 만능키&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>미국 정부 태양광 관세 적용국 범위 확대 추진, 인도·인도네시아·라오스 포함&amp;nbsp;&amp;nbsp;비즈니스포스트</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 17:22:33 GMT</t>
+          <t>Tue, 24 Feb 2026 01:30:38 GMT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9UWl8zeTVsUU5ZeTF0R3JPZU5RMzE1djdRQW9lRnFIOWtNZVo4TWZzWW9yMGFGX294Rnprc2J6T0lCS0RyZ3F5TTVQUzVySnFhUlNLRTR6NE5wa2NBTzhqcjRJaUp5ZHF0M0RXQjB4TQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE50dk42clEtRmhYWnlWX3IzNUZvSEZVN05PbjNNRHFqYlNBMkdxZ1phTHRKU09McjFjb01yd1k1ejNjQ0JiZkxscThKN3VkNGQxdGdrLVp1RWx1aXNKSHRJMUZwY2l0WVlrSVFyTTlqaEtxOTQ?oc=5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -883,32 +883,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>배터리·통신 장비… 美, 6개 산업 관세 검토 - 조선일보</t>
+          <t>삼정KPMG IEEPA 관세 위법 판결…관세환급·공급망·현금흐름 선제 점검 필요 - 아주경제</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>배터리·통신 장비… 美, 6개 산업 관세 검토&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>삼정KPMG IEEPA 관세 위법 판결…관세환급·공급망·현금흐름 선제 점검 필요&amp;nbsp;&amp;nbsp;아주경제</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 15:48:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:55:32 GMT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxQbFF3QV9uTk8zUEhESHNsWVhwZUZrbXcyd0hhMDdnMDl4dFlvUVNtZ2RrWlJVZTdseTRIa0NxSXdMbktoOVlKQ1NHSHdkQmRINUN0RDdPZVlMRWNFazFkUXNxU2M4cW5obHNfVnk3NWk1MXZ5Z0hMbGJkbENCb2FXQjc2a1_SAZgBQVVfeXFMTjdSUHlmSENrTVdYRE5YWXVwV21JMUcxcHNzQTRZMndjcVpqeFZZYjI0UmVOaW5rN1FDcG9iZTZCbFhuYVNSRHNSWlR2WGhkVGRYSEI5eHMzbDNGMFFONEE5UDl0aGRiSXFZMU1JVUpDa2ZpT3NCUVRoSGtEYmpzc2NBY3lFN1l6QnppVGlwS0d4Vk45QVFWcWs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE41ekUxM3duSW9McFY5bGhiMzNsTXFaaXd1aHhobVYyZmd3MFgtT0RRWEdyVHZWc1B5WHlSQWxBemtXancyZmwtQ1ZTaGM5QUN1U3pTS0VFTXlwd9IBWEFVX3lxTFB1YWxMOU9ldUFHQ0hRSXVQcFRRc3hCRHdJTTRaQzQ3Rm81TEJITkNkbnMzWGJ5Vjk4UF9fVW1fNWtIdThBcTRfbVZXOXJFMWVPWTR5NWstOF8?oc=5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -920,22 +920,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>트럼프 “대법원 결정으로 장난치는 국가, 더높은 관세 마주할것” - 문화일보</t>
+          <t>트럼프 관세, K-뷰티 영향은? 中 ODM 생산 유입 따라 공급망 리스크 확대 - 코스인코리아닷컴</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>트럼프 “대법원 결정으로 장난치는 국가, 더높은 관세 마주할것”&amp;nbsp;&amp;nbsp;문화일보</t>
+          <t>트럼프 관세, K-뷰티 영향은? 中 ODM 생산 유입 따라 공급망 리스크 확대&amp;nbsp;&amp;nbsp;코스인코리아닷컴</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:19:09 GMT</t>
+          <t>Tue, 24 Feb 2026 23:04:27 GMT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE9LOTQ2TnJsVTRrcE5nekF0aEhmZ2hoUUtGSmNrMXgyb2xndkwwaDRDR2ozZ3VFdHBEUmM5dm9JYzN1cEMxcmxhRW82V0d1Y3pw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5FNEI4eEpDMlppeGhrRHozMGc4OFktLWtEbVQ1X3hnQkI5T3JOSE5LdF85eG9YdmRYQVVSTm1RQVRHazgzSm5PT090YWtfdXpEQlVQSlNZLUFLOC1Sd2dnZHdKRQ?oc=5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -957,22 +957,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>“美, 새 ‘국가안보 관세’ 추진”… 배터리-전력망 등 6대 산업 겨냥 - 동아일보</t>
+          <t>트럼프가 쥔 ‘관세 카드’ 232조·301조…발동되면 세율 조정 만능키 - 한겨레</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>“美, 새 ‘국가안보 관세’ 추진”… 배터리-전력망 등 6대 산업 겨냥&amp;nbsp;&amp;nbsp;동아일보</t>
+          <t>트럼프가 쥔 ‘관세 카드’ 232조·301조…발동되면 세율 조정 만능키&amp;nbsp;&amp;nbsp;한겨레</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 19:30:00 GMT</t>
+          <t>Tue, 24 Feb 2026 17:22:33 GMT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE9TN0hsNElDZWdHeFBIbHhTSHpHaWJpZlFBZlJCUVY5eU1CRzUyV21LNEV4Q3E1NEw0bE5GbVZ6eXJEVU1FdDBQRWF5RmxaejZsbTZWZmlXZE41NTY0OWJ3b2RXaTBSZEIxOWI3OW9pY1ZzMFnSAWZBVV95cUxPWFRmVnJRcUlxTzEwNDc3c1lGdkhnd0NQS2FTeWEtZmZPUGxhbXNzaXEyUHV5OTI4dE9sZ2pZcFQxUEJKUXRmVkpqdWZDSTRuNnM4blhVSEJPU1lmanc3ZG5iTlFxYnc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9UWl8zeTVsUU5ZeTF0R3JPZU5RMzE1djdRQW9lRnFIOWtNZVo4TWZzWW9yMGFGX294Rnprc2J6T0lCS0RyZ3F5TTVQUzVySnFhUlNLRTR6NE5wa2NBTzhqcjRJaUp5ZHF0M0RXQjB4TQ?oc=5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>관세 전쟁 다시 불붙나…백악관 ‘15% 추진’에 각국 긴장 - JTBC</t>
+          <t>배터리·통신 장비… 美, 6개 산업 관세 검토 - 조선일보</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>관세 전쟁 다시 불붙나…백악관 ‘15% 추진’에 각국 긴장&amp;nbsp;&amp;nbsp;JTBC</t>
+          <t>배터리·통신 장비… 美, 6개 산업 관세 검토&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 23:21:00 GMT</t>
+          <t>Tue, 24 Feb 2026 15:48:00 GMT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE1DR2dTeHhseEtjd3Jjc3NWenB5OVhQWXR1S1pZbU16SDRrU1E4MjB5U3pCX1BRQ0FLWE1vTnV2emtURUNlaWZ2TV9IamkxdEZsWWIyNA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxQbFF3QV9uTk8zUEhESHNsWVhwZUZrbXcyd0hhMDdnMDl4dFlvUVNtZ2RrWlJVZTdseTRIa0NxSXdMbktoOVlKQ1NHSHdkQmRINUN0RDdPZVlMRWNFazFkUXNxU2M4cW5obHNfVnk3NWk1MXZ5Z0hMbGJkbENCb2FXQjc2a1_SAZgBQVVfeXFMTjdSUHlmSENrTVdYRE5YWXVwV21JMUcxcHNzQTRZMndjcVpqeFZZYjI0UmVOaW5rN1FDcG9iZTZCbFhuYVNSRHNSWlR2WGhkVGRYSEI5eHMzbDNGMFFONEE5UDl0aGRiSXFZMU1JVUpDa2ZpT3NCUVRoSGtEYmpzc2NBY3lFN1l6QnppVGlwS0d4Vk45QVFWcWs?oc=5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1031,22 +1031,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 트럼프 관세 충격 딛고 3대 지수 반등…AMD 8.77%·엔비디아 0.68% 상승 - 글로벌이코노믹</t>
+          <t>관세 전쟁 다시 불붙나…백악관 ‘15% 추진’에 각국 긴장 - JTBC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[뉴욕증시] 트럼프 관세 충격 딛고 3대 지수 반등…AMD 8.77%·엔비디아 0.68% 상승&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>관세 전쟁 다시 불붙나…백악관 ‘15% 추진’에 각국 긴장&amp;nbsp;&amp;nbsp;JTBC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:29:13 GMT</t>
+          <t>Tue, 24 Feb 2026 23:21:00 GMT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPeEdoak9DUlA3WWdYUXlsTk44NUVaQjd3V2NqR09fTzdUY25qMWJlSDdNTzRFUi1EWFI2OXBJWmlBWDB5SHRPQ3RMajdDSzhPaU1zRWlHbnRIaDlyZ2xrNFhReDB5aVl6S044c3RET0JuSEc5VVR6MEhDZEpJMVZFTms2ODVOYWQ4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE1DR2dTeHhseEtjd3Jjc3NWenB5OVhQWXR1S1pZbU16SDRrU1E4MjB5U3pCX1BRQ0FLWE1vTnV2emtURUNlaWZ2TV9IamkxdEZsWWIyNA?oc=5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1068,32 +1068,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>트럼프 ‘글로벌 관세’ 부과에···강경화 “동향 파악·대미 협의 지원” - 경향신문</t>
+          <t>IEEPA 관세 위법…"환급기회와 추가관세 동시 대응해야" - 한국세정신문</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>트럼프 ‘글로벌 관세’ 부과에···강경화 “동향 파악·대미 협의 지원”&amp;nbsp;&amp;nbsp;경향신문</t>
+          <t>IEEPA 관세 위법…"환급기회와 추가관세 동시 대응해야"&amp;nbsp;&amp;nbsp;한국세정신문</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 22:22:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:51:55 GMT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFBYZ2pFd3NGUEJLVmtZWkk4TlFLbi1PRnE2a3Y0OHBWVU4xamNDVVBWeXR2aHlCcVU5dFBUZkdVZE5oQzVzNnlOajNHVVFDSFZ3MlJZRzZMRGFBQdIBX0FVX3lxTE5tcktrQmNRN1pMSlpoLURuaTdGQ2kwQU56Mi0tTDVHcms5b09UTlExTElwdUs1X1pkUVFrVGkzaUJWWVFJc21UMHY3MGJIUENORWFvaGxlTWM1eDh0bFJj?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE04YmliQVNUX2NseVVsOUtMblMxX0FiemxDTHlMNFE5UkhseWp0b2w5ZEU5ajRUclJTZ1JLSFhIajhDYTJRemJkOXB2NXhXTl94TnE0RlctZFBsX0lDNXRudWxUdjM?oc=5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>상</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>트럼프, 새 ‘글로벌 관세’ 발효…일단 10%로 시작 - 한겨레</t>
+          <t>트럼프 ‘글로벌 관세’ 부과에···강경화 “동향 파악·대미 협의 지원” - 경향신문</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>트럼프, 새 ‘글로벌 관세’ 발효…일단 10%로 시작&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>트럼프 ‘글로벌 관세’ 부과에···강경화 “동향 파악·대미 협의 지원”&amp;nbsp;&amp;nbsp;경향신문</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 10:58:00 GMT</t>
+          <t>Tue, 24 Feb 2026 22:22:00 GMT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9KXzc5RW8zMzBOR1lFdzRiMkpmSnVCZEdzekhqR3BKS2VCUFgzbFhWLWMzb2ZYbDloUGszT2dLYWZxb0NyWkVEN0FDNWxZQ3hJWG1LcmhQR29YdDJqdDVsaFEyZDJtNEpxR3VxRnJKNA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFBYZ2pFd3NGUEJLVmtZWkk4TlFLbi1PRnE2a3Y0OHBWVU4xamNDVVBWeXR2aHlCcVU5dFBUZkdVZE5oQzVzNnlOajNHVVFDSFZ3MlJZRzZMRGFBQdIBX0FVX3lxTE5tcktrQmNRN1pMSlpoLURuaTdGQ2kwQU56Mi0tTDVHcms5b09UTlExTElwdUs1X1pkUVFrVGkzaUJWWVFJc21UMHY3MGJIUENORWFvaGxlTWM1eDh0bFJj?oc=5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15% 예고한 새 트럼프 관세…'트럼프식 타코'에 무덤덤 [글로벌 뉴스픽] - v.daum.net</t>
+          <t>트럼프 “대법원 결정으로 장난치는 국가, 더높은 관세 마주할것” - 문화일보</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15% 예고한 새 트럼프 관세…'트럼프식 타코'에 무덤덤 [글로벌 뉴스픽]&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>트럼프 “대법원 결정으로 장난치는 국가, 더높은 관세 마주할것”&amp;nbsp;&amp;nbsp;문화일보</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:21:08 GMT</t>
+          <t>Tue, 24 Feb 2026 21:19:09 GMT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1rdXhzNl9GV1p3TlpsZ0lDZXpPR0NWT3FrcHFZcTVfLU5SaE1VTEt1b2tRUUdSbjJHanpzNVBHZHd2UjNUbmNLWDBTRWhnZ2M?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE9LOTQ2TnJsVTRrcE5nekF0aEhmZ2hoUUtGSmNrMXgyb2xndkwwaDRDR2ozZ3VFdHBEUmM5dm9JYzN1cEMxcmxhRW82V0d1Y3pw?oc=5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,22 +1179,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과” - 한겨레</t>
+          <t>“美, 새 ‘국가안보 관세’ 추진”… 배터리-전력망 등 6대 산업 겨냥 - 동아일보</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>트럼프 “대법 결정 갖고 장난치는 국가, 훨씬 더 높은 관세 부과”&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>“美, 새 ‘국가안보 관세’ 추진”… 배터리-전력망 등 6대 산업 겨냥&amp;nbsp;&amp;nbsp;동아일보</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 06:34:00 GMT</t>
+          <t>Tue, 24 Feb 2026 19:30:00 GMT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5OOE5scE1pUUtDazYzUzg3aGo1MmZfWFBJaFZ0Smp3ZnZLcjRFMVB2QWNmNnIwVTY1blRNVXQwMm4wenBWNU1MSmltWm9qd05UOUFJczI0cERJa0VsdFdrckVwME9iTHRKaWx2ZkM5UQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE9TN0hsNElDZWdHeFBIbHhTSHpHaWJpZlFBZlJCUVY5eU1CRzUyV21LNEV4Q3E1NEw0bE5GbVZ6eXJEVU1FdDBQRWF5RmxaejZsbTZWZmlXZE41NTY0OWJ3b2RXaTBSZEIxOWI3OW9pY1ZzMFnSAWZBVV95cUxPWFRmVnJRcUlxTzEwNDc3c1lGdkhnd0NQS2FTeWEtZmZPUGxhbXNzaXEyUHV5OTI4dE9sZ2pZcFQxUEJKUXRmVkpqdWZDSTRuNnM4blhVSEJPU1lmanc3ZG5iTlFxYnc?oc=5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>백악관 "글로벌 관세 15%로 올릴 것"…시점은 특정 안해 - v.daum.net</t>
+          <t>“장난치면 더 높은 관세”…트럼프 관세 폭주 어디까지? - KBS 뉴스</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>백악관 "글로벌 관세 15%로 올릴 것"…시점은 특정 안해&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>“장난치면 더 높은 관세”…트럼프 관세 폭주 어디까지?&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 19:03:01 GMT</t>
+          <t>Tue, 24 Feb 2026 12:07:00 GMT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE94dFRsczBuelZCdl9NVHlnejI3VzgyUUVhTDlUOGhfVEotQURhbGQ3VXZzSVdXbGJjUnlkMV9IMjJ0eVB0Q2x3NjFUa0NfV1k?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9TMFEweGNaQm9Yd1E3aE4zS19CX3FiM1hNRk5kS2JsTWpyX0lkdFhLRVN6OExLeHJuZmxWV1ZUSFR4S3ozQWViTW82SjVHRV80Nk1uYWpDWXJvbmM?oc=5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>꼬이는 트럼프 15% 관세…되레 중국 수혜, 우방만 ‘타격’ - 한겨레</t>
+          <t>트럼프, 새 ‘글로벌 관세’ 발효…일단 10%로 시작 - 한겨레</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>꼬이는 트럼프 15% 관세…되레 중국 수혜, 우방만 ‘타격’&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>트럼프, 새 ‘글로벌 관세’ 발효…일단 10%로 시작&amp;nbsp;&amp;nbsp;한겨레</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 00:41:00 GMT</t>
+          <t>Tue, 24 Feb 2026 10:58:00 GMT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBqeHRGTmZteUZJa2Z5VVNwUjBwYndNSHdGNTR1U2U1bm5CQlNYZ21GbHR5Nl9uYzFlV3E1UnA1V01kSTJOMktOLUNHcHIwZWdVQkdHQVJsWHplbWQ5UEtIVWxjYjhEc2NvY2M3WQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9KXzc5RW8zMzBOR1lFdzRiMkpmSnVCZEdzekhqR3BKS2VCUFgzbFhWLWMzb2ZYbDloUGszT2dLYWZxb0NyWkVEN0FDNWxZQ3hJWG1LcmhQR29YdDJqdDVsaFEyZDJtNEpxR3VxRnJKNA?oc=5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1290,22 +1290,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"관세 돌려줘"...페덱스, 美 정부 상대 첫 소송 - v.daum.net</t>
+          <t>15% 예고한 새 트럼프 관세…'트럼프식 타코'에 무덤덤 [글로벌 뉴스픽] - v.daum.net</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"관세 돌려줘"...페덱스, 美 정부 상대 첫 소송&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>15% 예고한 새 트럼프 관세…'트럼프식 타코'에 무덤덤 [글로벌 뉴스픽]&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 20:03:00 GMT</t>
+          <t>Tue, 24 Feb 2026 21:21:08 GMT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9TZkRvb3Vpd2tZZmdMeld3U2tKR1g1Tmxka3BvY0hicGZXZ1FoUkJ6c0EwWEVtQjczenhXZFJlc3RPWDFqaWIzbW1FMGttMjQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1rdXhzNl9GV1p3TlpsZ0lDZXpPR0NWT3FrcHFZcTVfLU5SaE1VTEt1b2tRUUdSbjJHanpzNVBHZHd2UjNUbmNLWDBTRWhnZ2M?oc=5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>백악관 당국자 “글로벌 관세 15%로 올리는 작업 진행중” - 한겨레</t>
+          <t>강경화 "美 15% 대체관세, 국익 가장 부합하는 방향으로 대응" - 주간조선</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>백악관 당국자 “글로벌 관세 15%로 올리는 작업 진행중”&amp;nbsp;&amp;nbsp;한겨레</t>
+          <t>강경화 "美 15% 대체관세, 국익 가장 부합하는 방향으로 대응"&amp;nbsp;&amp;nbsp;주간조선</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 15:56:00 GMT</t>
+          <t>Wed, 25 Feb 2026 01:00:00 GMT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9PSDk1Tzd2X0pQanpvSDFVSVZPbUFVQzdFdkNVQUdlV3JZQ3ptdHhPcWhTS3hqWjlyZ1ZMMkpoQWFfT0JWSTdBeUNJaHo2dHBNbjFtLTdNLThVLTRrQWlQYlZFOXVFNVNnZmpWMkNnRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTFBObnVCOTZGblJFc0NhblVGZWZ0Q29udDlkeGFCRk1DVFN3elhGWUJnNlU5dkM2UkFCLWJVc0tpM1VHUXhBVVF6WFY3TndzVlN2LW0wWlZ1aXNEYS1zYV9BOENrTE9Nc1RCSVA0?oc=5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1359,27 +1359,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>청도군, FTA기금 과수고품질시설현대화사업 대상자 교육 실시 - 한국시사경제</t>
+          <t>백악관 "글로벌 관세 15%로 올릴 것"…시점은 특정 안해 - v.daum.net</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>청도군, FTA기금 과수고품질시설현대화사업 대상자 교육 실시&amp;nbsp;&amp;nbsp;한국시사경제</t>
+          <t>백악관 "글로벌 관세 15%로 올릴 것"…시점은 특정 안해&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 03:31:37 GMT</t>
+          <t>Tue, 24 Feb 2026 19:03:01 GMT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE5kczFyeUJpclZuUFdaUi1SRjNyMUphSkdwNDBpWXBHcjNVcnM5YjFmUFJ3Wm8zb29RMWQ2alpFa3U5RmFXM3BvM0RnQWcxZjZ5Z3VKU2IxbUZpZ3ktQm40OGxzbUV0eE5Jdmc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE94dFRsczBuelZCdl9NVHlnejI3VzgyUUVhTDlUOGhfVEotQURhbGQ3VXZzSVdXbGJjUnlkMV9IMjJ0eVB0Q2x3NjFUa0NfV1k?oc=5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1396,27 +1396,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>설 명절 원산지 표시 위반 470곳 적발…배추김치 144건 최다 - 경기일보</t>
+          <t>백악관 쪽 “글로벌 관세 15%로 올리는 작업 중”…시기는 언급 없어 - 한겨레</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>설 명절 원산지 표시 위반 470곳 적발…배추김치 144건 최다&amp;nbsp;&amp;nbsp;경기일보농관원 강원지원, 설 명절 농식품 원산지 표시 위반 33곳 적발&amp;nbsp;&amp;nbsp;뉴스1설명절 농식품 원산지 표시위반 470곳 적발…배추김치 '최다'&amp;nbsp;&amp;nbsp;연합뉴스설 명절, 농식품 원산지 표시 위반 470개소 적발&amp;nbsp;&amp;nbsp;서울Pn국립농산물품질관리원, 설 명절 농식품 원산지 위반 470곳 적발&amp;nbsp;&amp;nbsp;v.daum.net올해 설 명절에도 원산지 표지 위반 행위 여전&amp;nbsp;&amp;nbsp;국제신문설 명절 앞두고 농식품 원산지 표시 위반 업체 무더기 적발&amp;nbsp;&amp;nbsp;노컷뉴스"타지역 배를 나주배로"…설 명절 ‘원산지 둔갑’ 적발&amp;nbsp;&amp;nbsp;남도일보농관원, 설 선물·제수용품 원산지표시 위반 470곳 적발&amp;nbsp;&amp;nbsp;데일리안</t>
+          <t>백악관 쪽 “글로벌 관세 15%로 올리는 작업 중”…시기는 언급 없어&amp;nbsp;&amp;nbsp;한겨레</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:27:00 GMT</t>
+          <t>Wed, 25 Feb 2026 00:54:00 GMT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9FYm02T2RNalZGTy1qcHlCNXdodlRfbmR5NjBoUHprUmVEWEkwMFBvNkJsd1VLQVpPRVhpNFc2b0p2SnFuSWt4NUFqdnlfX1ZZNy1oTm1lbV9IZTQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9PSDk1Tzd2X0pQanpvSDFVSVZPbUFVQzdFdkNVQUdlV3JZQ3ptdHhPcWhTS3hqWjlyZ1ZMMkpoQWFfT0JWSTdBeUNJaHo2dHBNbjFtLTdNLThVLTRrQWlQYlZFOXVFNVNnZmpWMkNnRQ?oc=5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1426,71 +1426,71 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>“DNA로 원산지 가린다”…염소 이력관리 도입 본격화 - 전자신문</t>
+          <t>통상 환경 '시계제로'…실종된 한미 FTA 효과 부활, 이게 될까? - 뉴시스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>“DNA로 원산지 가린다”…염소 이력관리 도입 본격화&amp;nbsp;&amp;nbsp;전자신문</t>
+          <t>통상 환경 '시계제로'…실종된 한미 FTA 효과 부활, 이게 될까?&amp;nbsp;&amp;nbsp;뉴시스구윤철 “미 관세 15% 부과 땐 ‘FTA 체결’ 한국 상대적 유리”&amp;nbsp;&amp;nbsp;경향신문구윤철 “상호관세 무효, 불확실성 커…FTA 체결국으로 유리한 측면”&amp;nbsp;&amp;nbsp;한겨레무협 "美 새 관세 구조로 'FTA 체결국' 韓 경쟁력↑ 가능성"&amp;nbsp;&amp;nbsp;한국무역협회-KITA.NET"美 관세 재편…FTA 체결국 韓, 가격 경쟁력 강화"&amp;nbsp;&amp;nbsp;v.daum.net美 추가관세, 韓기업에 득될 수도?…무협 “한미FTA로 미국 시장 경쟁력↑”&amp;nbsp;&amp;nbsp;매일경제무역협회 "미국 관세 변화, FTA 체결 한국에 유리…추가 품목 관세 주목"&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 04:21:40 GMT</t>
+          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiTkFVX3lxTE1iX0Z4RjEzWkd2aTgwajNldGc2b2dNb1pWSkRmQnJPMzZrUk45MjdmY3JXS2lnak1PV0VBU29vRGtxZUpHYkJsejl6NUdVZw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE92aXpYZURRTWdNQ3JYV1lqeFM5RXZBRmducWRRYUwtcm5nRThTdHJJaWwtMmJYdnF3RU1kNTRfZzB6NUEtQlNiZlY5MVhiUEMtSVZUTWdhWDhoRXdFWHpkT9IBeEFVX3lxTE9VMmtpRnFLU1d1YmdRQ3o1SnZ0MFRSTGZkNWgxZk55U2VJdGl2SV82OVBwbE1oQml2U3lNakdQSG9WMW5yZ3dhOGdrSGNzN2xLMExWRTR6Y3l0RFI5MWR0YUUxSlhLVjhjVDVtRlRJTUozTnBEaUxTYg?oc=5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>상</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"알고보니 캐나다산"....이번 설 명절도 축산물 원산지 표시 위반 1위는 '돼지고기' - 돼지와사람</t>
+          <t>청도군, FTA기금 과수고품질시설현대화사업 대상자 교육 실시 - 한국시사경제</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"알고보니 캐나다산"....이번 설 명절도 축산물 원산지 표시 위반 1위는 '돼지고기'&amp;nbsp;&amp;nbsp;돼지와사람</t>
+          <t>청도군, FTA기금 과수고품질시설현대화사업 대상자 교육 실시&amp;nbsp;&amp;nbsp;한국시사경제</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:47:44 GMT</t>
+          <t>Tue, 24 Feb 2026 03:31:37 GMT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTFA0WDdwVDVKZjVydzB6YzE3UHhlVjc3M2RhMFA0Nzg0bndjRjBTOXJPWF9kSV9mejZVV1RjM2twYTFVdS1jSkVITmNmYmg1QzhnZVFxYXZpaVdqVF9yei1IZ2ZR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE5kczFyeUJpclZuUFdaUi1SRjNyMUphSkdwNDBpWXBHcjNVcnM5YjFmUFJ3Wm8zb29RMWQ2alpFa3U5RmFXM3BvM0RnQWcxZjZ5Z3VKU2IxbUZpZ3ktQm40OGxzbUV0eE5Jdmc?oc=5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1512,22 +1512,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>농관원, 원산지 위반 470개소 적발...거짓표시 256개소 형사입건 - 중앙신문</t>
+          <t>7월 USMCA ‘공동검토’⋯ 美 ‘자동차 원산지 규정 더 죄어라’ 압박 - 브릿지경제</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>농관원, 원산지 위반 470개소 적발...거짓표시 256개소 형사입건&amp;nbsp;&amp;nbsp;중앙신문</t>
+          <t>7월 USMCA ‘공동검토’⋯ 美 ‘자동차 원산지 규정 더 죄어라’ 압박&amp;nbsp;&amp;nbsp;브릿지경제</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 22:50:17 GMT</t>
+          <t>Wed, 25 Feb 2026 00:20:00 GMT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE9yd3hscUx4ZGJwUXgyMEZTcjRHVVBGa2xjT0FGbnpUdTZTdG9NZW56R184ZlhpUkJIWEx0VGY2U3VfYnNRZjhCV0Q5bE43MS1ZZFF2MWUzMUtyd0RuUUI3bnBFYzJDRS1Q?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9ScDl0STNvT2I0N1IyUmZNeXZVTmxQNWVtajhRSHRDR0RjQ0tlRG9Rd3BzZGpNdlJ6U2RkMDg1TWEyRnpNNnB4NklwSDlRTVVYaE9NVDVRRVU4UQ?oc=5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>설 밥상 원산지 위반 470곳 적발…절반은 ‘거짓표시’ 형사입건 - 문화일보</t>
+          <t>설 명절 원산지 표시 위반 470곳 적발…배추김치 144건 최다 - 경기일보</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>설 밥상 원산지 위반 470곳 적발…절반은 ‘거짓표시’ 형사입건&amp;nbsp;&amp;nbsp;문화일보</t>
+          <t>설 명절 원산지 표시 위반 470곳 적발…배추김치 144건 최다&amp;nbsp;&amp;nbsp;경기일보</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 08:21:29 GMT</t>
+          <t>Tue, 24 Feb 2026 05:27:00 GMT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE5oVXg4MWx1UlctbGNOTnA0OGJwT2FoVFNNUDZrNnJuWDYzMXJodzdwcE1rN2hTM245d2JLNmVmdFY0NVlPc2VRekYtU01KWngy?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9FYm02T2RNalZGTy1qcHlCNXdodlRfbmR5NjBoUHprUmVEWEkwMFBvNkJsd1VLQVpPRVhpNFc2b0p2SnFuSWt4NUFqdnlfX1ZZNy1oTm1lbV9IZTQ?oc=5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>북미무역협정 재점검… 자동차 원산지 규정 강화 수면 위 - 아주경제</t>
+          <t>“DNA로 원산지 가린다”…염소 이력관리 도입 본격화 - 전자신문</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>북미무역협정 재점검… 자동차 원산지 규정 강화 수면 위&amp;nbsp;&amp;nbsp;아주경제</t>
+          <t>“DNA로 원산지 가린다”…염소 이력관리 도입 본격화&amp;nbsp;&amp;nbsp;전자신문</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 04:21:40 GMT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE5QSFhMMEQ3ajJIYlhweUw2cmQ1U190QlhOV0d0bXdMVFphTXBCemRDVHMyMjZOalp4ZGc1LWN5clNHcWlaeG9MNUJuV2FmM1k5dzF4YnV6ejQ5QdIBWEFVX3lxTE81dDhac0gxNmhCaVJjd2VpZzRjUkIydV9SQVR5OVRYYTJiUkhmWWh6WUJ3MWtKbUZLN1oxRTg0QVFja1ZlQnZMUFRoTk8xMFRjUjgyM2hxLW4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTkFVX3lxTE1iX0Z4RjEzWkd2aTgwajNldGc2b2dNb1pWSkRmQnJPMzZrUk45MjdmY3JXS2lnak1PV0VBU29vRGtxZUpHYkJsejl6NUdVZw?oc=5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USMCA 연장 공동검토 돌입…車 원산지규정 강화 ‘촉각’ - 이투데이</t>
+          <t>농관원 강원지원, 설 명절 농식품 원산지 표시 위반 33곳 적발 - 뉴스1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>USMCA 연장 공동검토 돌입…車 원산지규정 강화 ‘촉각’&amp;nbsp;&amp;nbsp;이투데이</t>
+          <t>농관원 강원지원, 설 명절 농식품 원산지 표시 위반 33곳 적발&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 07:11:52 GMT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTFA2bksxY2Qya015dXVqeWFUTElxaUg1SGIxM0NJcF9IMXBBQXVRSnRjVFVvZ1JHWHVaUlNoSnEtcUh2cXNCTzdENkU3amhwSkZMbzBZNg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE5KX1N1WXNDOUN3bWhDcHRzLXcwSm9fajlYUW5CejJNdTJEcmFNTjdJOEV4WG5tMkVXbHlfWGhuN0hzeWZXTUtwSUcydFpreVJNWElUcQ?oc=5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1660,22 +1660,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>설 대목 노렸다…원산지 표시 위반 470곳 무더기 적발 - 매일일보</t>
+          <t>캐나다 삼겹살, 한돈으로 속여 1천만원 팔아…원산지 위반 무더기 적발 - 뉴시스</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>설 대목 노렸다…원산지 표시 위반 470곳 무더기 적발&amp;nbsp;&amp;nbsp;매일일보</t>
+          <t>캐나다 삼겹살, 한돈으로 속여 1천만원 팔아…원산지 위반 무더기 적발&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:37:52 GMT</t>
+          <t>Tue, 24 Feb 2026 02:00:00 GMT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE9ZeUhnLWdzUTBaV1lmVFNKSUxhZ192RG9SMFJBemI4aGoyREp2cGtUZk9MRmk3R0Q0akc5VG5MQ3Z2TVdKMkh1TEp0YTAyVmExYlE0X0hWM0V3amFoSjRrNE5PZFE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1pWmg5Z1BLTjhSd0wyOFBjRWw2ZDRVcmNzNU8teHhfcTFBTnhEU21JSFlmNWZNZk00YXh5SWg2eHFuWm1SVmI0ME11bFV5bDRrc0Y4Nm9lNGhjYzhPbzZrTNIBeEFVX3lxTE1xeHgxQVVhdmp0cWVIUElLNXJXMkJKdWxEV3hqb2Y5RnpLQmY1MWMyOHl3a25qNlgxSmVkYUhRcTJ2WUR5ZV9vVW9iMktzREVOb09JV2VLRWVrSzBVTEJPQmx4LWZiREF3aEE3UkxHeDg5dE5tN2Fuaw?oc=5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1697,22 +1697,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"일몰 앞둔 USMCA, 연장 가능성 커…車 원산지 규정 강화 대비해야" - 네이트</t>
+          <t>설 명절, 농식품 원산지 표시 위반 470개소 적발 - 서울Pn</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"일몰 앞둔 USMCA, 연장 가능성 커…車 원산지 규정 강화 대비해야"&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>설 명절, 농식품 원산지 표시 위반 470개소 적발&amp;nbsp;&amp;nbsp;서울Pn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 02:11:09 GMT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE84SFJpRjBsblE3dW56bEx2c25VRWJCbDdidVQwckdtcDBicHVwY2RKZ3ZtZzRFOEppNnFXZVVraUwxUVNqTWhJS1FTclN2MExmXzY4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE1Na0ZFWHVFSzByc3B6cWhsOVRlVkQxNHpCTUpJM2lXMEY1eE1DbnVRWk4taTNfYUlBSldod0xMN0RCWThpNGFrMldwak5Sakd4SUstY1BZbkptUEdsNE5DSWNn?oc=5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTFBWV1NZaWJoVzB2YzFrb05mZ0hDRklING1BclJWVnNkaFllNnFJc0FjZElTQ2lzal9fem5UczZJM2REYzE1WVREeGlmbWNsRGxRWVMxMFI2ZDJ0RGxXYTZJZNIBYEFVX3lxTFBWV1NZaWJoVzB2YzFrb05mZ0hDRklING1BclJWVnNkaFllNnFJc0FjZElTQ2lzal9fem5UczZJM2REYzE1WVREeGlmbWNsRGxRWVMxMFI2ZDJ0RGxXYTZJZA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBvZ2F2S3psUk1icllmY0FvNkpLUUtRV2NHNXVvNDBDX3NEdkJrOGd1MVdnblR2d3ZDd3BuSmRaOXJGZHBHcmY1ckEyU0tFTi1PTEExVTUzMDY2NmvSAWBBVV95cUxQVldTWWliaFcwdmMxa29OZmdIQ0ZJSDRtQXJSVlZzZGhZZTZxSXNBY2RJU0Npc2pfX3puVHM2STNkRGMxNVlURHhpZm1jbERsUVlTMTBSNmQydERsV2E2SWQ?oc=5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1771,22 +1771,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>떡 표시 안하고 배추김치 국내산 둔갑…설 명절 원산지 위반 470곳 - 중부일보</t>
+          <t>설 연휴 앞두고 원산지 속여 판매…업소 470곳 적발 - KBS 뉴스</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>떡 표시 안하고 배추김치 국내산 둔갑…설 명절 원산지 위반 470곳&amp;nbsp;&amp;nbsp;중부일보</t>
+          <t>설 연휴 앞두고 원산지 속여 판매…업소 470곳 적발&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 07:54:00 GMT</t>
+          <t>Tue, 24 Feb 2026 02:03:00 GMT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5lS3Z5UnZHRzd4SGZwTkxQYXFHVk14Z0oyaGg0S0UxeDdZcWlPbmE4ZjlaM05xbl9mWWVNWm5rM05xRjYzbHUyY3dfblRGbTZkdHRNZlluSW1wR2FtMHI2U185TWZVV1NtTDJMVnlhaw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBQYlZ2OXV0Q3NqYmRRRDdNcXNMZUMzNXBRbTBBTG9CZTk4SldxdjhzVXpZY3BNeEdzbFF0dE5fYmlCWi1WaS02UGZHanJIOGtVNGw3OHhDQkpmbVk?oc=5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1808,22 +1808,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>설 명절 원산지 단속 470곳 적발… 거짓표시 256곳 형사입건 - 푸드아이콘</t>
+          <t>USMCA 연장 공동검토 돌입…車 원산지규정 강화 ‘촉각’ - 이투데이</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>설 명절 원산지 단속 470곳 적발… 거짓표시 256곳 형사입건&amp;nbsp;&amp;nbsp;푸드아이콘</t>
+          <t>USMCA 연장 공동검토 돌입…車 원산지규정 강화 ‘촉각’&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFAtSGN4UGctclAyMEdGVW1qRk5hR3B1Si0yZ1pzSHNrTGw3dWd0TlRSWW0xT1NvbkNlajFfWGRDQzJIM3BZWERSUlhsSGx2Y1BhVXVmRS1oaVo5RzNtbnFoZDk0WGNVZ0xRLU84ag?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTFA2bksxY2Qya015dXVqeWFUTElxaUg1SGIxM0NJcF9IMXBBQXVRSnRjVFVvZ1JHWHVaUlNoSnEtcUh2cXNCTzdENkU3amhwSkZMbzBZNg?oc=5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 농식품 원산지 표시 위반 470개소 적발 - BBS불교방송</t>
+          <t>"알고보니 캐나다산"....이번 설 명절도 축산물 원산지 표시 위반 1위는 '돼지고기' - 돼지와사람</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 농식품 원산지 표시 위반 470개소 적발&amp;nbsp;&amp;nbsp;BBS불교방송</t>
+          <t>"알고보니 캐나다산"....이번 설 명절도 축산물 원산지 표시 위반 1위는 '돼지고기'&amp;nbsp;&amp;nbsp;돼지와사람</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 21:47:44 GMT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1ZdVRXZHpWbEFxdnRZakNOaU4wRjRYOXBQMmt5WDlZUWVDYUJYd1BiOUdRdFVMUmZ2RloyQ3Y3ZldtclRWNWQtWDdZLTJhSUw5WTR0bGltYW8xMmhoMlRCdm1CLVBjYWpzcEF3?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTFA0WDdwVDVKZjVydzB6YzE3UHhlVjc3M2RhMFA0Nzg0bndjRjBTOXJPWF9kSV9mejZVV1RjM2twYTFVdS1jSkVITmNmYmg1QzhnZVFxYXZpaVdqVF9yei1IZ2ZR?oc=5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1882,22 +1882,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>농관원 강원지원, 설 명절 원산지 표시 위반 33곳 적발 - 강원신문</t>
+          <t>인천시, 역세권 수산물 업소 75곳 점검 원산지 위반 적발 16건 - 인천투데이</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>농관원 강원지원, 설 명절 원산지 표시 위반 33곳 적발&amp;nbsp;&amp;nbsp;강원신문</t>
+          <t>인천시, 역세권 수산물 업소 75곳 점검 원산지 위반 적발 16건&amp;nbsp;&amp;nbsp;인천투데이</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 14:30:00 GMT</t>
+          <t>Wed, 25 Feb 2026 00:22:27 GMT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE5SYUdCWFoyRXdxSC1pSVhMQzVaY2dVNjhuMWszNlJaaWFHdHF4a3FiUXBqNW9QM1o2Z2draElES2R0LWF6V2xSbEsxTlVHakw0SlVpOUpGOVJWMWUxdDhFOFB5OHk4UE9D?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE42Zl91TjNvV2R5dWJ6aXFJaHBVTE9vZXVoN0g0SUJsLVlSTVVGeXA5cnY3ODNreW4xTWV2dk5MSlM0TVA3QWRuMUFOX2hnbnh1Qm9VeUdCYnNwYUNsV1A2cDNWSkJJYWV0NW9SVHE1ZWw?oc=5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1919,22 +1919,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"車 원산지규정 강화 대비…시나리오 평가·공급망 DB 관리해야" - 네이트</t>
+          <t>설 명절 농식품 원산지 위반 470개소 적발… ‘김치·돼지고기’ 둔갑 여전 - 팜인사이트</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"車 원산지규정 강화 대비…시나리오 평가·공급망 DB 관리해야"&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>설 명절 농식품 원산지 위반 470개소 적발… ‘김치·돼지고기’ 둔갑 여전&amp;nbsp;&amp;nbsp;팜인사이트</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:01:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:34:05 GMT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1CNjlzdnAxa2kzVlllVkNQcDBybWlabUo1VElfbFl0dG9ZcmM0SXNEX3M2Z1puZXdWSUZ3Qm9nVFRkTGtQajJhTzZXd1E4REhyN3Fr?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE5obmRXdnA0eWNrVzZoU3hkSTJxdG9ONHp2Uy1kM09jVVhyNDBYcTR4NmdMbVk4amR0NnE4RWx3Qm12TmdCbHlkM0g5RW9aR29nNk5mXzlEREV3d3YyM2Jfc0NHZE9GbzJHSl9nQ3J3?oc=5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"USMCA 개정 가능성 높아…車업계, 원산지규정 강화 대비해야" - 네이트</t>
+          <t>미국발 원산지규정 개정 압박…USMCA 공동검토가 한국 완성차에 미칠 파장은 - 대한경제</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"USMCA 개정 가능성 높아…車업계, 원산지규정 강화 대비해야"&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>미국발 원산지규정 개정 압박…USMCA 공동검토가 한국 완성차에 미칠 파장은&amp;nbsp;&amp;nbsp;대한경제</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:37:22 GMT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE91RUlCNmJmSmtnNk40TW1GWnZsTzR0aHphQzMtT05PZnFLeUhKLWZkX2dtRFliUzl3OUNTNHo5S21OQVVVVHpHQVp5V1FaaFdYSGVn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5Jb19CWVFTM2pxNzlWZ1FkWDhic25UN21fdE5vT0Qzb19keGxiN2Q1aFFQOFprc0ZiTTRjejI5QVNuMF93bl92ak1uYnUzYm8zRm1ZY2FSVnpfTlpqTzN0NFktd3B4Q0tWT3N1cUdVbGVURXc?oc=5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>원주·횡성 등 4곳 대설주의보 해제…태백·강원산지 4곳은 유지 - 강원도민일보</t>
+          <t>농관원, 원산지 위반 470개소 적발...거짓표시 256개소 형사입건 - 중앙신문</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>원주·횡성 등 4곳 대설주의보 해제…태백·강원산지 4곳은 유지&amp;nbsp;&amp;nbsp;강원도민일보</t>
+          <t>농관원, 원산지 위반 470개소 적발...거짓표시 256개소 형사입건&amp;nbsp;&amp;nbsp;중앙신문</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 06:30:05 GMT</t>
+          <t>Tue, 24 Feb 2026 22:50:17 GMT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE9BbnRFeFFvenZvOVAwT2w3YWtpOFlXczFyQUcyREhHN1NZVllkdHI5ZnRwSnlGT1VFdFp0SWVRSjl3RWxmRjBMZWREOTdSdlJkd1lOaGRTanBzWExCa0xnbUZnSmxDU2s?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE9yd3hscUx4ZGJwUXgyMEZTcjRHVVBGa2xjT0FGbnpUdTZTdG9NZW56R184ZlhpUkJIWEx0VGY2U3VfYnNRZjhCV0Q5bE43MS1ZZFF2MWUzMUtyd0RuUUI3bnBFYzJDRS1Q?oc=5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2030,22 +2030,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 농식품 원산지 표시 위반 470개소 적발 - daejonilbo.com</t>
+          <t>국립농산물품질관리원, 설 명절 농식품 원산지 위반 470곳 적발 - v.daum.net</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 농식품 원산지 표시 위반 470개소 적발&amp;nbsp;&amp;nbsp;daejonilbo.com</t>
+          <t>국립농산물품질관리원, 설 명절 농식품 원산지 위반 470곳 적발&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:44:00 GMT</t>
+          <t>Tue, 24 Feb 2026 09:00:20 GMT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5wTXBKanozemI2eWZZRElLbG1jbjVGV0h5d1FqamFqb0FfQi1NSE1RaUZRcUZRNjZPRzJkaG9hcUNQWGFQYXlxNFdMZFF5R19GS21NYTBWMGNtandvQzZMQjNRNnlmVnozMHVwM3d0b9IBc0FVX3lxTE9WN2VOc0RTdERPdGVsekhCdmxsXzhyVU5QN0lnMGZKQWw0RXJ3Ymg4dlZMbTh2bWV2UXU4cHBJQXN2UUVHa1gwckZXOVlZeWw5dHEySG5tRGZUOWE2OHVrX09JX0dEdmNKZ1JKczBTSUVtT0E?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFB1NGZHSm51TW1Od3Qyd1JROXp6YjZEODlNOV9mZUNBUkJOLWxzLVlkSTlHQVRhQ19rRGFZX1Vpb1ZId1ZINFVhc2JyTmJRSW8?oc=5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2067,22 +2067,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>설 연휴 앞두고 원산지 속여 판매…업소 470곳 적발 - KBS 뉴스</t>
+          <t>"타지역 배를 나주배로"…설 명절 ‘원산지 둔갑’ 적발 - 남도일보</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>설 연휴 앞두고 원산지 속여 판매…업소 470곳 적발&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+          <t>"타지역 배를 나주배로"…설 명절 ‘원산지 둔갑’ 적발&amp;nbsp;&amp;nbsp;남도일보</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:03:00 GMT</t>
+          <t>Tue, 24 Feb 2026 22:25:00 GMT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBQYlZ2OXV0Q3NqYmRRRDdNcXNMZUMzNXBRbTBBTG9CZTk4SldxdjhzVXpZY3BNeEdzbFF0dE5fYmlCWi1WaS02UGZHanJIOGtVNGw3OHhDQkpmbVk?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBFeTVUU19HQVN1aFdUZ184ODlMVVlNeDV1aEdvcS1uT19uTTl6c1BYaDJlMXRjalFiNlFPcE5Xa1k0YUhfYWR2akgyUGpQcjJHUUpZbFF5MTJzUk1EZ2hrSFlMSlAteF93c1o4dtIBcEFVX3lxTFBTYlRRSVUxbEtkSXhscWZzYXZwTk9zd0pUaV9ONnZmVnNFX3FiLWtuR0JzRVVld2ZXVE9MYlhvblZKYlZMQnh1RWEycTFVMDByM3RydWpYZ3V5ckVkRFN4OHNQcVJHYW40bUNQcjdtTFg?oc=5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2104,22 +2104,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>설 명절, 농식품 원산지 표시 위반 470개소 적발 - 소비자를 위한 신문</t>
+          <t>USMCA 원산지 문턱 높아진다…"공급망 데이터 일제 점검 필요" - 파이낸스스코프</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>설 명절, 농식품 원산지 표시 위반 470개소 적발&amp;nbsp;&amp;nbsp;소비자를 위한 신문</t>
+          <t>USMCA 원산지 문턱 높아진다…"공급망 데이터 일제 점검 필요"&amp;nbsp;&amp;nbsp;파이낸스스코프</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 08:41:00 GMT</t>
+          <t>Tue, 24 Feb 2026 23:18:00 GMT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSEFVX3lxTE5xZzRmeFJjM1dKdmJ4ZGdpSmtQUkgzTl9lY3NOaTFXZlVGS2lZN1hlVFlhMUFCMzRRRENiVTJUWW5yUW5zTlV2SQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE0xVFZYVlZid0hLc3Bya29pa2g4dWQ5aGM2b3NSNDN1M3Y4OTR2eFJ1dmlVRV9Xb0IyOWVRYjFtdHh5NGlXZ1A2c1p3Mmd1eDZxMDhBaEYtYzQzQTdHeGV5QVNNbUNHaE5QTGc?oc=5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>설 명절 제수용품 둔갑 판매 ‘꼼수’…농관원, 원산지 위반 470곳 적발 - 푸드투데이</t>
+          <t>설 밥상 원산지 위반 470곳 적발…절반은 ‘거짓표시’ 형사입건 - 문화일보</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>설 명절 제수용품 둔갑 판매 ‘꼼수’…농관원, 원산지 위반 470곳 적발&amp;nbsp;&amp;nbsp;푸드투데이</t>
+          <t>설 밥상 원산지 위반 470곳 적발…절반은 ‘거짓표시’ 형사입건&amp;nbsp;&amp;nbsp;문화일보</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:43:11 GMT</t>
+          <t>Tue, 24 Feb 2026 08:21:29 GMT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE9mSnIzRkVweFNONDdVMUVyT3NFUzNWbFk2TVBzNko3S3J5V0NWREV6TEJYNUs4ajNsUXNJckhtT1JvMGphTWJlUzNNMmZSMGYyR0JEZzlJSWVGMGZGZVptN0FBUjJEZw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE5oVXg4MWx1UlctbGNOTnA0OGJwT2FoVFNNUDZrNnJuWDYzMXJodzdwcE1rN2hTM245d2JLNmVmdFY0NVlPc2VRekYtU01KWngy?oc=5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 원산지표시 위반 470곳 적발…배추김치 가장 많아 - 뉴스1</t>
+          <t>북미무역협정 재점검… 자동차 원산지 규정 강화 수면 위 - 아주경제</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>농관원, 설 명절 원산지표시 위반 470곳 적발…배추김치 가장 많아&amp;nbsp;&amp;nbsp;뉴스1</t>
+          <t>북미무역협정 재점검… 자동차 원산지 규정 강화 수면 위&amp;nbsp;&amp;nbsp;아주경제</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:00:00 GMT</t>
+          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE5MVjBtOUV4UnE5czh0Ml9ReFFsMEFLN1VVNGFpTzhSaFdqcUQ5VkNkbmpZclBaVXRyM1pmLWFpSkdKQ2o3RjVScmc1a2NKVUdWemZlbw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE5QSFhMMEQ3ajJIYlhweUw2cmQ1U190QlhOV0d0bXdMVFphTXBCemRDVHMyMjZOalp4ZGc1LWN5clNHcWlaeG9MNUJuV2FmM1k5dzF4YnV6ejQ5QdIBWEFVX3lxTE81dDhac0gxNmhCaVJjd2VpZzRjUkIydV9SQVR5OVRYYTJiUkhmWWh6WUJ3MWtKbUZLN1oxRTg0QVFja1ZlQnZMUFRoTk8xMFRjUjgyM2hxLW4?oc=5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2215,22 +2215,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>설 명절 원산지 표시 위반 470곳 적발… 거짓표시 256곳 형사입건 - 한국식품의약신문</t>
+          <t>인천시, 수산물 원산지 표시 위반 16곳 적발…거짓표시 형사처벌 - 여성종합뉴스</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>설 명절 원산지 표시 위반 470곳 적발… 거짓표시 256곳 형사입건&amp;nbsp;&amp;nbsp;한국식품의약신문</t>
+          <t>인천시, 수산물 원산지 표시 위반 16곳 적발…거짓표시 형사처벌&amp;nbsp;&amp;nbsp;여성종합뉴스</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 01:37:38 GMT</t>
+          <t>Wed, 25 Feb 2026 00:08:46 GMT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE9xU0VEbTN2dkg4UGljQlEyVXZOOWZjdHp5TlRqeVRhSHZhTnBnU3hkaU0yLUdIWk9VZ01OcEZ5cDZjYURxb0ZaeFdBZkNrRmxEcDg3U3ZaYVNFZC1UMmdWRWllb0dGV28?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5FNXBiNy1QQ3lSWW5jU19zYnd1U2lSRFlnLWF3X09tUjBBYkFqT2lUS3hQU3lNc2piYWtRZGNkcXh6bEptSFc5aUlxM09ycFhUZXBkeU9yczFCR1BxQlN2blNybGFzaDNDZ2FDdC1Mbw?oc=5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2252,22 +2252,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>설명절 농식품 원산지 표시 위반 470곳 적발 - 더팩트</t>
+          <t>인천시, 역세권 수산물 업소 점검…16곳 위반 적발 - 뉴시스</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>설명절 농식품 원산지 표시 위반 470곳 적발&amp;nbsp;&amp;nbsp;더팩트</t>
+          <t>인천시, 역세권 수산물 업소 점검…16곳 위반 적발&amp;nbsp;&amp;nbsp;뉴시스</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:00:02 GMT</t>
+          <t>Tue, 24 Feb 2026 23:54:17 GMT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9JanpBMGQ1MEV6RHZPUEl1LU9IOGZUaF90cjFNRHV6eDh4Mk1LUUpzclNFU1h0OWZjZHZSZWQyaGNWeVFkTVpwNEZpM3pkSTA2MXR3V3oyUFlZUdIBVEFVX3lxTE9vdi1EeEZQdUlIMUNzal9jT3BvcmZnQ1F6Y1lva1ZOS3hqenhsaWxZalFGdFdVSm1sUGJtMjJnX0V5cjNpQ3Z4ZjVlM2lWb2o4eDl0OA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE5WWGdBcUI5QTJHYXI1S1ZsWVU0SkRDZFhWc29KLWFsbl9JZ191b0VNdWxPcWxWRDR6SDdjMUpFNnphT0RsZnF1di1xY21WelZSdi1SdUpubWYxUWVXakpiNtIBeEFVX3lxTE9hbjlaLUQ0WWMzZC1ESXN2RkcxcFBhV3k5Z0pUWDQ2NndEdnB1MjhlNUF2ZmltYWdsUDBvWGw2NHpRYzNYR29DamY1a2FPMkliSnozNEJZV0N2MnFoNll0eUMwOGxiY1BHRWczX1RiVFRQeEE3R2hzdA?oc=5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2289,22 +2289,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>캐나다 삼겹살, 한돈으로 속여 1천만원 팔아…원산지 위반 무더기 적발 - 뉴시스</t>
+          <t>7월 USMCA '공동검토'? 美 '자동차 원산지 규정 더 죄어라' 압박 - 네이트</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>캐나다 삼겹살, 한돈으로 속여 1천만원 팔아…원산지 위반 무더기 적발&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>7월 USMCA '공동검토'? 美 '자동차 원산지 규정 더 죄어라' 압박&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 02:00:00 GMT</t>
+          <t>Wed, 25 Feb 2026 00:21:00 GMT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE1pWmg5Z1BLTjhSd0wyOFBjRWw2ZDRVcmNzNU8teHhfcTFBTnhEU21JSFlmNWZNZk00YXh5SWg2eHFuWm1SVmI0ME11bFV5bDRrc0Y4Nm9lNGhjYzhPbzZrTNIBeEFVX3lxTE1xeHgxQVVhdmp0cWVIUElLNXJXMkJKdWxEV3hqb2Y5RnpLQmY1MWMyOHl3a25qNlgxSmVkYUhRcTJ2WUR5ZV9vVW9iMktzREVOb09JV2VLRWVrSzBVTEJPQmx4LWZiREF3aEE3UkxHeDg5dE5tN2Fuaw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTFBlSGp6MmVqTTlscWZTaU1wQ3B1dUVXbC0tVGpSZnVlVC11bWdNbVNyWVpISlIzQ2piQU41Q05vQldLR214U3VmUGRuUmRWTXRraU13?oc=5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2326,59 +2326,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>중국산 배추김치를 국내산으로...강원 업체 33곳 적발 - 강원도민일보</t>
+          <t>"USMCA 개정 가능성…車업계, 원산지규정 강화 대비해야" - 네이트</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>중국산 배추김치를 국내산으로...강원 업체 33곳 적발&amp;nbsp;&amp;nbsp;강원도민일보</t>
+          <t>"USMCA 개정 가능성…車업계, 원산지규정 강화 대비해야"&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 08:17:14 GMT</t>
+          <t>Tue, 24 Feb 2026 23:39:00 GMT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE1DN2NVZXl6QWdnU1ZsZWFhLXNRaGowbVphODNiczFLUnBGZ1JzeUpYVDd3SUkwMi1uaFVFazd5dTZfelp3c3JSbVp0VVBycHA5ZjItYjVvVDQxZ0xTUGR2TENYUUpvUGM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTFBxRHdNNW4xS1l4bnFqWnJNX3dtMUZNbEsyLVpONnpvYmtyYzVFSnJ2ekcxNUtqRFZBcTVfRTZnbFNsTHM1Rk5QZHRCRkpsSlZ2OHkw?oc=5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>산업부, 日·中 열연 28.16%~33.43% 반덤핑관세 부과…가격약속 수락 - 페로타임즈</t>
+          <t>"일몰 앞둔 USMCA, 연장 가능성 커…車 원산지 규정 강화 대비해야" - 네이트</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>산업부, 日·中 열연 28.16%~33.43% 반덤핑관세 부과…가격약속 수락&amp;nbsp;&amp;nbsp;페로타임즈</t>
+          <t>"일몰 앞둔 USMCA, 연장 가능성 커…車 원산지 규정 강화 대비해야"&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 05:30:17 GMT</t>
+          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFAtR0Y4d2hiTUo3MzlMbklTY3NUVkMyWW5JaXF2VWFYUWpxcDl5YjNwdTkzVFpsZVRRVWpIY0RfbGVsamxtaGhSR2hEYjBBT0xJcnpDQ1VFOW1ZYWQzMHFHRVVaZHFXMU5nMU9YdQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE84SFJpRjBsblE3dW56bEx2c25VRWJCbDdidVQwckdtcDBicHVwY2RKZ3ZtZzRFOEppNnFXZVVraUwxUVNqTWhJS1FTclN2MExmXzY4?oc=5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2388,34 +2388,34 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>美 상무부, 인도·인니·라오스 태양광 상계관세 예비판정…한화큐셀 영향은? - 임팩트온</t>
+          <t>"車 원산지규정 강화 대비…시나리오 평가·공급망 DB 관리해야" - 네이트</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美 상무부, 인도·인니·라오스 태양광 상계관세 예비판정…한화큐셀 영향은?&amp;nbsp;&amp;nbsp;임팩트온</t>
+          <t>"車 원산지규정 강화 대비…시나리오 평가·공급망 DB 관리해야"&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 13:12:22 GMT</t>
+          <t>Tue, 24 Feb 2026 21:01:00 GMT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE1zd2hsVzZBYWRTU09wa3BFb01KT0E4bVZLT0hTckNIdEpqQUpXb2Z2QU1hMENtNWdoTERWTkxBenFwQmlNeEhCd1lFYTNQUWcyT05oTW1OS1Q1T2xjdW5mZVBwbktnZG5T?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1CNjlzdnAxa2kzVlllVkNQcDBybWlabUo1VElfbFl0dG9ZcmM0SXNEX3M2Z1puZXdWSUZ3Qm9nVFRkTGtQajJhTzZXd1E4REhyN3Fr?oc=5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2432,27 +2432,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>정부, 일본ㆍ중국산 열연강판 반덤핑 관세 '부과' - 세이프머니</t>
+          <t>설 대목 노렸다…원산지 표시 위반 470곳 무더기 적발 - 매일일보</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>정부, 일본ㆍ중국산 열연강판 반덤핑 관세 '부과'&amp;nbsp;&amp;nbsp;세이프머니</t>
+          <t>설 대목 노렸다…원산지 표시 위반 470곳 무더기 적발&amp;nbsp;&amp;nbsp;매일일보</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue, 24 Feb 2026 06:11:00 GMT</t>
+          <t>Tue, 24 Feb 2026 05:37:52 GMT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1iTm03bGJDZUE2QW5ETzRrZ09weGhkazZUNXVTYWs1Y2o1elFWNGNoT1JsWnBDNUtWVXJyd0Z3czdiVnM3Q2pkVE13V1ZZcnZnN3h6YXlSQWx4aTRVdG9YZ0g3Wks5a3NiTE4yWERB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE9ZeUhnLWdzUTBaV1lmVFNKSUxhZ192RG9SMFJBemI4aGoyREp2cGtUZk9MRmk3R0Q0akc5VG5MQ3Z2TVdKMkh1TEp0YTAyVmExYlE0X0hWM0V3amFoSjRrNE5PZFE?oc=5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2462,9 +2462,1341 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>원산지</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>떡 표시 안하고 배추김치 국내산 둔갑…설 명절 원산지 위반 470곳 - 중부일보</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>떡 표시 안하고 배추김치 국내산 둔갑…설 명절 원산지 위반 470곳&amp;nbsp;&amp;nbsp;중부일보</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 07:54:00 GMT</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5lS3Z5UnZHRzd4SGZwTkxQYXFHVk14Z0oyaGg0S0UxeDdZcWlPbmE4ZjlaM05xbl9mWWVNWm5rM05xRjYzbHUyY3dfblRGbTZkdHRNZlluSW1wR2FtMHI2U185TWZVV1NtTDJMVnlhaw?oc=5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>원산지</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>설명절 농식품 원산지 표시위반 470곳 적발…배추김치 '최다' - 연합뉴스</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>설명절 농식품 원산지 표시위반 470곳 적발…배추김치 '최다'&amp;nbsp;&amp;nbsp;연합뉴스</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 02:00:01 GMT</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTFBWV1NZaWJoVzB2YzFrb05mZ0hDRklING1BclJWVnNkaFllNnFJc0FjZElTQ2lzal9fem5UczZJM2REYzE1WVREeGlmbWNsRGxRWVMxMFI2ZDJ0RGxXYTZJZNIBYEFVX3lxTFBWV1NZaWJoVzB2YzFrb05mZ0hDRklING1BclJWVnNkaFllNnFJc0FjZElTQ2lzal9fem5UczZJM2REYzE1WVREeGlmbWNsRGxRWVMxMFI2ZDJ0RGxXYTZJZA?oc=5</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>원산지</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>"USMCA 개정 가능성 높아…車업계, 원산지규정 강화 대비해야" - 네이트</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>"USMCA 개정 가능성 높아…車업계, 원산지규정 강화 대비해야"&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 21:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE91RUlCNmJmSmtnNk40TW1GWnZsTzR0aHphQzMtT05PZnFLeUhKLWZkX2dtRFliUzl3OUNTNHo5S21OQVVVVHpHQVp5V1FaaFdYSGVn?oc=5</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>중</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>중, 일 핵심 방산업체 등 20곳 ‘수출통제’ 명단에…일 “철회 요구” - 한겨레</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>중, 일 핵심 방산업체 등 20곳 ‘수출통제’ 명단에…일 “철회 요구”&amp;nbsp;&amp;nbsp;한겨레中, 미쓰비시조선 등 日기관 20곳 수출 통제대상 올려&amp;nbsp;&amp;nbsp;동아일보중국, 일본 기업 등 40곳 희토류 등 수출 통제·관찰 제재&amp;nbsp;&amp;nbsp;v.daum.net中, 20개 日기업 수출통제…'관심 목록' 20곳도 추가(종합)&amp;nbsp;&amp;nbsp;뉴시스중국 일본 기업 20곳에 수출통제 시행, 사나에 총리 총선 압승에도 압박 지속&amp;nbsp;&amp;nbsp;비즈니스포스트中, 日기업 수출규제 강화…日정부 "용납 못해, 철회해야"&amp;nbsp;&amp;nbsp;아시아경제中, 日 기업 20곳 수출통제…“군사력 증강 관여”&amp;nbsp;&amp;nbsp;sedaily.com中, 재선 다카이치에 '축전' 대신 '제재'…미쓰비시 등 수출통제&amp;nbsp;&amp;nbsp;mt.co.kr중국, 다카이치 압박 강화…일본 기업 40곳 희토류 등 이중용도 물자 수출 통제&amp;nbsp;&amp;nbsp;이투데이</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 09:47:00 GMT</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE8xNHpOUXhGdF9wdm8xRkRmQzd5S24xR1l5U0VfV2pJMVVCanFzQThmQXNZeFJzWXBrOUpYYXpoT3MtVDN2WTBhcVBzOEFoWG9Sc3FrQktMemFhdi1kT1BycE9TMUVzQjRRcFFlOA?oc=5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>수출 막혔는데 어떻게...“딥시크, 엔비디아 블랙웰로 훈련” - sedaily.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>수출 막혔는데 어떻게...“딥시크, 엔비디아 블랙웰로 훈련”&amp;nbsp;&amp;nbsp;sedaily.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 01:25:36 GMT</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBNVGhZOE1rdGlENktGT3c5elF6UjNHdHJOYzdCVGdPRjhsaHlxNlZQSEpiUWpKOS10cUdTbjllYlhtZlp2dGwtVDNTTFdZdjg?oc=5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>미국엔 ‘관세 유화책’·일본엔 ‘수출 통제’…중국의 속내는? - v.daum.net</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>미국엔 ‘관세 유화책’·일본엔 ‘수출 통제’…중국의 속내는?&amp;nbsp;&amp;nbsp;v.daum.net</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 21:24:00 GMT</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBnNktrMjZ5cEZmSUMxaFV1S3NJbE1KaVJ2aFI2dl9tcFA5Mkw3MWl5VEZ5bWtsbEI3ckpzSFdsTUtmNUxENVl6UFN4Rmo5ZDA?oc=5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
         <v>6</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>중국은 일본 기업 40곳을 수출 통제 대상 목록에 올렸다. - Vietnam.vn</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>중국은 일본 기업 40곳을 수출 통제 대상 목록에 올렸다.&amp;nbsp;&amp;nbsp;Vietnam.vn</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed, 25 Feb 2026 00:28:44 GMT</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxOd0J5RXlSd0p4a0VOdjl6amVtOGFFVVJpMHFxRWtuS3YwUHhYWHN4YnlUWldsQjVJOHlHQUlQQkdWTkx3VWpKQUN1ejNqR25tNEM3TmdBdHllWUd2bzNSdU9ZZHk4MmFFVHI0SzlJbGRmVERNUzZhR0k2YzNmcVBVVk5QdUdTRjNIUEZjN2xzVDljR18t?oc=5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>중국, 일본 기업 40곳 ‘수출 통제’…다카이치 총선 압승에 공세 재개 - 경향신문</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>중국, 일본 기업 40곳 ‘수출 통제’…다카이치 총선 압승에 공세 재개&amp;nbsp;&amp;nbsp;경향신문</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 11:19:00 GMT</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE0yNWd5RGVKZFRkY1J4TDBKclJRNnJicHAtYkctTUI1cVhKU1NFYUllV1JSdkhHTlNBaURBck1QZy1uMlNQck91Zm1hMlFtUWdnU28zMktnSk1xd9IBX0FVX3lxTE0zcjBhbWpfNElMc1ZWUnFfT3luY1FWTDlteEhDeUVBdFExUWtvNVFPZFRzTEJRcDBxZHlqZUx4eGFaZ0c4dHlYWmZidGNQREhKU2s4bW9YcG1weUFWZm9z?oc=5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>中 "군사물자 활용"…日기업 20곳 수출통제 - 한국경제</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中 "군사물자 활용"…日기업 20곳 수출통제&amp;nbsp;&amp;nbsp;한국경제</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:27:00 GMT</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTFBKaGtLZVZyMDdmM215dEdUeTJ1WXJrR2lRNzdTaGt6THdoZFo2dkZMa1REamRmZ1dLUjRQTUI0OWlTZkJ1LXZjemtLend3VjZwM2JDZdIBVEFVX3lxTFBKaGtLZVZyMDdmM215dEdUeTJ1WXJrR2lRNzdTaGt6THdoZFo2dkZMa1REamRmZ1dLUjRQTUI0OWlTZkJ1LXZjemtLend3VjZwM2JDZQ?oc=5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>中, 日기업 20곳에 수출 통제… 일본 “용납 못 해… 철회 요구” - 서울신문</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中, 日기업 20곳에 수출 통제… 일본 “용납 못 해… 철회 요구”&amp;nbsp;&amp;nbsp;서울신문</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 15:05:33 GMT</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMid0FVX3lxTE9aaFdIR2JRelkweU5rRHhKRW5Ld0U1ZFFWbjJsRU1PS3Bvb3JDZWtPOV9OSmx4SVljVVlycEpoTFNKbUptd1k3aFR6Q1F1Z2RrQVllNlRjdWpDa1hqZFdxNUpFVEgzcXR3MUhOMnBldXBDeHYzcENR?oc=5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산·중공업 20곳 수출통제··· 미중·한중 공급망 긴장 고조 - 경북매일</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산·중공업 20곳 수출통제··· 미중·한중 공급망 긴장 고조&amp;nbsp;&amp;nbsp;경북매일</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 07:46:00 GMT</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFAwUW4wU0Nud0lhSExhRDg4cHVQanV5SHBsOFppMUF2S0RVUklSTXBUbHVMbW54aEFZeXBGMGRydGpCTVZUVUFkeVJyVkZUczBsZjVDY3RfTGpBQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>딥시크, '클로드' 1600만 번 훔쳐 배웠나…미중 AI 도둑질 전쟁, 삼성·SK 반도체 수출 통제 불씨 될 수도 - 글로벌이코노믹</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>딥시크, '클로드' 1600만 번 훔쳐 배웠나…미중 AI 도둑질 전쟁, 삼성·SK 반도체 수출 통제 불씨 될 수도&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 22:25:13 GMT</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxQR1BEYkZWTVUwRFFsa2Z5bjhaeE53NlVpYnptOGl4TTJFWnMzakFCWXAyckxOdDZQdHg2eHduNkh4UURnTFJtMlUwdnlCZzZUdDlkNURRZF9GNWRyZUVEV0oyUW9NWXVBcldyN3NLdHJZQXhYLWpDYzBfaFlHRXloejZMSGtvRFE?oc=5</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>중국, 일본 기업·기관 20곳 수출통제…"일 군사력 증강 관여" - JTBC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>중국, 일본 기업·기관 20곳 수출통제…"일 군사력 증강 관여"&amp;nbsp;&amp;nbsp;JTBC</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 03:56:00 GMT</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTFBONmRPWW1WT2E1RF9Pd1NkLXhmU3ZWclFmYW5memJEa1JRLWFmWUNzVnc5cFN5TUxMTUpJV093UlBaS1kxUWFvdUJuTHpUYW51RV9IWg?oc=5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>中 상무부, 日 20개 기업 수출 통제 전격 시행 - 아시아투데이</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中 상무부, 日 20개 기업 수출 통제 전격 시행&amp;nbsp;&amp;nbsp;아시아투데이</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 06:14:51 GMT</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE9CYURhWnllVDdYVG9lR1JCYXp3TjFXbG92Ym5EV20wenJkTlNleHlPT0ZLSG41TFY2TDVsN0Q3SFVycUQwZG81THB1bk5qejA3b2hDUjh1UUtmMjRjZUdTVWczNFJLQW5GNjFKMDFB?oc=5</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선·방위대 등 日 40곳 수출통제·감시…"핵 야욕 저지" - 중앙일보</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선·방위대 등 日 40곳 수출통제·감시…"핵 야욕 저지"&amp;nbsp;&amp;nbsp;중앙일보</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 04:48:01 GMT</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE1wdm5YcXJ2TC14TU9nSVJtSnkxeENiWXBWVkdYZEptWlBmc0UwbWZ6dkpzWVdEMGc5ZUI5OUJ3WjN6SEdHbXVzNHRPb1JYRWhqY0NJcVZB?oc=5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>中, 日 기업에 '수출통제' 경제 압박…미쓰비시 등 대상 - 신아일보</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中, 日 기업에 '수출통제' 경제 압박…미쓰비시 등 대상&amp;nbsp;&amp;nbsp;신아일보</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 05:41:49 GMT</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFB1ckU4X0s2Mi1jV1B1ZEtTUnBLcWhSdEdwaEdwWnpVZE4zZ3FqSEJDLWZiQmx6VTY1M19VT2x4SjZkOXRRd25DcENuTkhPMmVIbW1vQS1fRV82eXRDR3Ffbm54WjhCRGNIekVfUU1qRQ?oc=5</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>중국, 20개 일본 기업 수출통제…“일 군사력 증강 관여” - KBS 뉴스</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>중국, 20개 일본 기업 수출통제…“일 군사력 증강 관여”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 02:35:00 GMT</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE92TzEwN3ZFSFUwMk9LX0N6R2xHdDZsTTEyZ2U0eXgzSEhhUnV4Zjlyc0dDd19Mamxkd2tEakgybmR1RXJEeXZYa2NhQjRZUTYtYzhSeEllczB1SjA?oc=5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>중국, 40개 일 기업·기관 이중용도물자 수출통제…“재군사화와 핵보유 막으려” - 경향신문</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>중국, 40개 일 기업·기관 이중용도물자 수출통제…“재군사화와 핵보유 막으려”&amp;nbsp;&amp;nbsp;경향신문</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 04:28:00 GMT</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9OWm1DY29TY2JPbFhwMjBqSm9WdktiOW5qT2g0RWZORHZ6M2NwT3dQQi1XZU9la0ZKLWdNb2dNSTRsSWNPZEdzbTNHVTlQOTROMVFGRHozNzZHd9IBX0FVX3lxTE1oa0tRTlZnbU8zWW1pZzM0aFBnSEpxeTdLV3RsYWotNnRkaWJRR0o0SWI0dUlvOXZuM2JXX2lwOUNnRkJfVW5ySkdPTTNMRzNBa3AwbDExN1JHTVlfekpv?oc=5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>다시 일본 때리는 중국…"재군사화 막는다" 무더기 수출 규제 - JTBC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>다시 일본 때리는 중국…"재군사화 막는다" 무더기 수출 규제&amp;nbsp;&amp;nbsp;JTBC</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:06:00 GMT</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE4zZWxvWl9fOUllMFZZMWNXMnBZS0VjUjFmWTRUV1lGdkxFdlpyVFl1WTR6dUN3SHJISnRmY3hMSzRKbGk4MGF0MzdOYVY5dmcyTzVpeg?oc=5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>중국, 일본 ‘군사력 관여’ 기업 수출 통제 - v.daum.net</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>중국, 일본 ‘군사력 관여’ 기업 수출 통제&amp;nbsp;&amp;nbsp;v.daum.net</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:15:46 GMT</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE02NnpyNGZiWnhZVnpIeEpVaEM1djN1ejd6RlRlQ1N5bTZpMEN0YVVvbFBtRm1MMnUwM1JBUVhhd0FFSFE0VXhoaWJ2YjRDRVk?oc=5</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>중국 ‘수출 규제 강화’에 일본 “절대 용납 못해…철회 요구” - KBS 뉴스</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>중국 ‘수출 규제 강화’에 일본 “절대 용납 못해…철회 요구”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:21:00 GMT</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBnaUlwU0pKcWtKWXVJN2NRcGU4RHRCelVtQ21EU0FIVUZSNld1RUZtUEI5MmptekxzOFlnb2lTYVcwODlxZ0xKZHBaZVU4TVRhUmNCWjYzbUxzZ28?oc=5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산업체 20곳에 수출 통제... "일본 군사력 증강 기여" - 한국일보</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산업체 20곳에 수출 통제... "일본 군사력 증강 기여"&amp;nbsp;&amp;nbsp;한국일보</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 09:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5iY0RzZE96MFp4bDU2ZzVKVG83ZUtjTS15RTBGYlZ2QzVVUllRazNmTjEwQjlnbEhrNVo4dFRYM0JmWUljU3BKcDRrYzFpbkdKRGJIOFJfX29OMFFmOUljdlgtQWNmSFdMSFJJWFhjTHI4R0U?oc=5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선 등 20개 日기업 수출통제…‘관찰 명단’ 20곳도 추가 - 데일리안</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선 등 20개 日기업 수출통제…‘관찰 명단’ 20곳도 추가&amp;nbsp;&amp;nbsp;데일리안</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 11:06:00 GMT</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE9DM09SUjdBSVViTXFvd0J4WldRSFB1STd2ajNYMjA5MVNUQ2RuOWxjbnB2OER3a3NHVVc3amNPZGp3aWQxNzhLT0ltRl9jNC1mSWtmel9R0gGGAkFVX3lxTE1vYWtOc21FZE9wUTE5dWdxcXM2ZHhfcTJ1eVNSMDNtUjZ4bE5lSUtNay1lWVV2M0JId2xTaC1TN0U1UzRJVXRfWkpTRUxxdW5oYjd3ZFJRcFhDaFZHLXI0bF91a1RZdC1BcmxfbGc1Y3phQVBWa0luazRBcm5PNENhWEFHanJzRXVvYl9wMHJKbmlQWUFWdnRnbDR4U3daMVp4cndUS3Vjck1SemdMa183cW5hZDdKR2FkX1hlQzI5ME5JQWwwUm5vdmZmcElHNGNLWkVBTHo0OTlTOGJmd3dRVldWTmFZRXhsU1ZRUU45NXpLdHpVb1RjcDBRVW1UTHBLV3EzZVE?oc=5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>中, 항공·조선 등 日기업 20곳 수출통제…"재군사화 저지"(종합) - 뉴스1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中, 항공·조선 등 日기업 20곳 수출통제…"재군사화 저지"(종합)&amp;nbsp;&amp;nbsp;뉴스1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 03:18:16 GMT</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE1yTTJRbU1lWERJVXlpYzFlSW9fVnd6cEw1S0liVUpxekpFdnJpNksydDJJOXFXcEttN0w2TUxVTWNqSGxfUGFKaEVURDhqTXZhRWpTSVQ1cEVkQnlKQnc?oc=5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>日정부, 中의 자국 기업 수출통제에 "용인못해…철회 요구" - 뉴시스</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>日정부, 中의 자국 기업 수출통제에 "용인못해…철회 요구"&amp;nbsp;&amp;nbsp;뉴시스</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:17:23 GMT</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTFBSRHZQc0JjMklLc2dOSnltZmFLUHdVZF9qc2JYa0s1MmtVY19ZcEZYODlrTS1GNFVlTlpMcUxiREFuSWdBWDNON1doUzVJMjY0SzNQdE1Xbkx3amZKbnNMSNIBeEFVX3lxTE9DT1Z1aTFDWm15czR3RlV5enROUEJlOVZGaDZQc2RoLTJvUm1hTWhtZlpzZmdRdFhDOHZhZndVNjRKRTVKREdXWVA3TEdFMHl6V254NnJnaDBsQVlDWUpIb3YtOXU4cjFnMnJXRmZKbjlQa3ZhTDJkWg?oc=5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>中 “日 재군사화 저지”…일본기업 20곳에 희토류 등 수출통제 - 동아일보</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中 “日 재군사화 저지”…일본기업 20곳에 희토류 등 수출통제&amp;nbsp;&amp;nbsp;동아일보</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 08:38:00 GMT</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTFBoYUxCQ1lrSUd2VkZFd1hXZHBselZfRjhwcWNMTGRxV2gzSFd3V2g3WFFLNXhtd0puTnpNeDU5YzhxY0JzQTBaN0NBVnI1cjczYkpkTVk0aEVnNER3NWtEUHBvWWJ3ZzhjU0JOM0FLZlVKYm_SAWZBVV95cUxNaGdQOXhDXzFQXzJ1RUlVTkFkU1RCTDd2Ui1SQmI0Nl8wUF9uVk94dXVLV19hSnhIOHhYLVE2Rlh2RjVVbWhfS044RGNEMEtGMjdocFdJNE52UXV0NXd1blJFN21BN3c?oc=5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>中, 일본에 추가 보복 조치‥미쓰비시조선 등 20개 日기업 수출통제 - v.daum.net</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中, 일본에 추가 보복 조치‥미쓰비시조선 등 20개 日기업 수출통제&amp;nbsp;&amp;nbsp;v.daum.net</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 07:06:00 GMT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9SX2podXlxa3JjX1VpTE5XSTVSLTBranJHQkx6ZDNJckoyV2JRMm5qd1g4UzZqWGE0VlpSX3lpMUR4UFB2bXhhMEM4T1pnalk?oc=5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시 등 日 기업 20곳 수출통제 - segye.com</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시 등 日 기업 20곳 수출통제&amp;nbsp;&amp;nbsp;segye.com</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 13:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE5ybVdtRHlaT21odzVLSE1laHl1SkJ1QVBuWFJfUk1NMEk5TWhpRGdhdF9tc0UxQlQ4bzZNcTVJXzVCT21maG05OUd4RkJtYXBWdDVhd2pXOWTSAVRBVV95cUxNSXJhT2dhMUVsOEtpM081VmpGa0pLZTVWUkhEdGtNYzVvdWoyRWdxOURhOU56TExlLVFPSzJudTdvSWV5NUJjNDJJVTIycEFSZnVvR2o?oc=5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[속보]中 "미쓰비시조선 등 20개 日기업 대상 수출통제" - 뉴스1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[속보]中 "미쓰비시조선 등 20개 日기업 대상 수출통제"&amp;nbsp;&amp;nbsp;뉴스1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 02:29:14 GMT</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBpLWNoUjd4TjVwSWtVVnJTVHhIUTc2MXRCS21yVmxqd0dFVE9VS1lsTWh0ZnNoOWtRMmszRUpvSzZMbTNUSUc0OTk5SmRuYktxM2JlNkF2YXJSY1QyblE?oc=5</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>중국, 미쓰비시조선 등 일본 기업 20곳 수출통제 - YTN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>중국, 미쓰비시조선 등 일본 기업 20곳 수출통제&amp;nbsp;&amp;nbsp;YTN</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 04:18:00 GMT</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE5uZUlMS09pdEQzQ1FRMEZoZDRWd1cwaEZKZGZRTjFYLVRBemFORlZGYW16V0VJRlRZSUdfcHNDTGc2a0IzX29KODd0YkVVSEZ2bm9ZaC1fRDliOGRkZXfSAYMBQVVfeXFMT1AtQ0U0eklTMEpQdWpsRC1Ubk9FRWN1Mk95ZzU4bE4ydkNPTC1hNTNlVll3YnA5YkYxTEIwYlBLQ2xJbldKUDBSWlk0SVI4S0tOX2lDWlJOYlY0bExHbHFPdWFVRV9ubHFuOWxReGxYaUtQYl9xcnBOOEFULTBETk41Nmc?oc=5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선 등 日기업 20곳 수출통제…"재군사화 저지" - 뉴스1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中, 미쓰비시조선 등 日기업 20곳 수출통제…"재군사화 저지"&amp;nbsp;&amp;nbsp;뉴스1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 02:47:55 GMT</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE50Ty1aQUxjOVNqb3RGMFNYUlVmS0lMOVdvWmN5MHJZUlMtX3dCUmxrb2hEajBLUTVqX3VPei1tUDZCejh3TFhNclczeUFGaXJsYkx4eWlITFdiU2FRMVE?oc=5</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산 핵심 20곳 수출통제… 미쓰비시·가와사키 정조준 - dspdaily.com</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>중국, 일본 방산 핵심 20곳 수출통제… 미쓰비시·가와사키 정조준&amp;nbsp;&amp;nbsp;dspdaily.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 11:53:00 GMT</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBqXzZWQ3RDZmNXRTl3bFVub0hsMVRIUWYxcEFIRmN3OTVjWDRaeDJ6UFZzSHl1LVVjNFlQY3hOSHVsMFBsRTEyY3p6ZGI0M3d0YW5ROXRlS0pFWmM?oc=5</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>中 '이중용도물자' 日수출 통제 강화…日 "항의" - 네이트</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中 '이중용도물자' 日수출 통제 강화…日 "항의"&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 14:25:00 GMT</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE8tZjhlN0xZWDN2QTA1MldzYnVmNVJjWjVxTkQxZHViTkJ5YXRYMnpLSjY4Z3RvcDFYeENhaU5xdkF4bXQ5SDZXMHFPWWthTXpTZlpF?oc=5</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>산업부, 日·中 열연 28.16%~33.43% 반덤핑관세 부과…가격약속 수락 - 페로타임즈</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>산업부, 日·中 열연 28.16%~33.43% 반덤핑관세 부과…가격약속 수락&amp;nbsp;&amp;nbsp;페로타임즈</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 05:30:17 GMT</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFAtR0Y4d2hiTUo3MzlMbklTY3NUVkMyWW5JaXF2VWFYUWpxcDl5YjNwdTkzVFpsZVRRVWpIY0RfbGVsamxtaGhSR2hEYjBBT0xJcnpDQ1VFOW1ZYWQzMHFHRVVaZHFXMU5nMU9YdQ?oc=5</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>美 상무부, 인도·인니·라오스 태양광 상계관세 예비판정…한화큐셀 영향은? - 임팩트온</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>美 상무부, 인도·인니·라오스 태양광 상계관세 예비판정…한화큐셀 영향은?&amp;nbsp;&amp;nbsp;임팩트온</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 13:12:22 GMT</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE1zd2hsVzZBYWRTU09wa3BFb01KT0E4bVZLT0hTckNIdEpqQUpXb2Z2QU1hMENtNWdoTERWTkxBenFwQmlNeEhCd1lFYTNQUWcyT05oTW1OS1Q1T2xjdW5mZVBwbktnZG5T?oc=5</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>정부, 일본ㆍ중국산 열연강판 반덤핑 관세 '부과' - 세이프머니</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>정부, 일본ㆍ중국산 열연강판 반덤핑 관세 '부과'&amp;nbsp;&amp;nbsp;세이프머니</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Tue, 24 Feb 2026 06:11:00 GMT</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1iTm03bGJDZUE2QW5ETzRrZ09weGhkazZUNXVTYWs1Y2o1elFWNGNoT1JsWnBDNUtWVXJyd0Z3czdiVnM3Q2pkVE13V1ZZcnZnN3h6YXlSQWx4aTRVdG9YZ0g3Wks5a3NiTE4yWERB?oc=5</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
